--- a/results/tables/rankings/Most_reported_interacting_drugs.xlsx
+++ b/results/tables/rankings/Most_reported_interacting_drugs.xlsx
@@ -5,60 +5,66 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SCUOLA\2. UNI\3.Ricerca\Assegno_di_ricerca\Repositories\UNIBO\Fellowship\Pharmacovigilance\Interacting_Drugs\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SCUOLA\2. UNI\3.Ricerca\Assegno_di_ricerca\Repositories\UNIBO\Fellowship\Pharmacovigilance\Interacting_Drugs\results\tables\rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678D6054-76F0-4E90-952B-133C0BC14AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A25139F-6FB1-40EF-B2F8-98F9880038D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$D$3:$G$13</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>substance</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>perc</t>
+    <t>acetylsalicylic acid</t>
+  </si>
+  <si>
+    <t>clozapine</t>
+  </si>
+  <si>
+    <t>furosemide</t>
+  </si>
+  <si>
+    <t>paracetamol</t>
+  </si>
+  <si>
+    <t>quetiapine</t>
+  </si>
+  <si>
+    <t>ritonavir</t>
+  </si>
+  <si>
+    <t>rivaroxaban</t>
+  </si>
+  <si>
+    <t>tacrolimus</t>
+  </si>
+  <si>
+    <t>valproic acid</t>
   </si>
   <si>
     <t>warfarin</t>
   </si>
   <si>
-    <t>tacrolimus</t>
-  </si>
-  <si>
-    <t>acetylsalicylic acid</t>
-  </si>
-  <si>
-    <t>quetiapine</t>
-  </si>
-  <si>
-    <t>valproic acid</t>
-  </si>
-  <si>
-    <t>rivaroxaban</t>
-  </si>
-  <si>
-    <t>paracetamol</t>
-  </si>
-  <si>
-    <t>ritonavir</t>
-  </si>
-  <si>
-    <t>clozapine</t>
-  </si>
-  <si>
-    <t>furosemide</t>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t>Drug/Tot int (%)</t>
+  </si>
+  <si>
+    <t>Int/Non-int (%)</t>
   </si>
 </sst>
 </file>
@@ -74,15 +80,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -90,12 +102,234 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,137 +626,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="D2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="7" width="20.140625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5699</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2.0859999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5627</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E6" s="2">
+        <v>4854</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4690</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1.821</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3954</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2.2069999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3545</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1.329</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3078</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2817</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <v>2.4449999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E12" s="2">
+        <v>2810</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1.3580000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>5699</v>
-      </c>
-      <c r="C2">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5627</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>4854</v>
-      </c>
-      <c r="C4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>4690</v>
-      </c>
-      <c r="C5">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>3954</v>
-      </c>
-      <c r="C6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>3545</v>
-      </c>
-      <c r="C7">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>3078</v>
-      </c>
-      <c r="C8">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>2817</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>2810</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
+      <c r="E13" s="5">
         <v>2460</v>
       </c>
-      <c r="C11">
+      <c r="F13" s="15">
         <v>0.9</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.53500000000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>